--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -543,6 +543,21 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,21 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -579,39 +579,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -674,9 +642,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="6"/>
-    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -951,34 +919,34 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="11" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
@@ -987,9 +955,9 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -999,22 +967,22 @@
       <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="23" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2004</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1023,25 +991,25 @@
       <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="10" t="str">
-        <f t="shared" ref="H3:H20" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2005</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1050,7 +1018,7 @@
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="9">
@@ -1061,14 +1029,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2006</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1077,7 +1045,7 @@
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="9">
@@ -1088,7 +1056,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2007</v>
       </c>
@@ -1102,7 +1070,7 @@
       <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="9">
@@ -1113,7 +1081,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2007</v>
       </c>
@@ -1127,7 +1095,7 @@
       <c r="E7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="9">
@@ -1139,7 +1107,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2008</v>
       </c>
@@ -1153,7 +1121,7 @@
       <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="9">
@@ -1165,7 +1133,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2009</v>
       </c>
@@ -1179,7 +1147,7 @@
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="9">
@@ -1190,7 +1158,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2009</v>
       </c>
@@ -1204,7 +1172,7 @@
       <c r="E10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="9">
@@ -1215,7 +1183,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2010</v>
       </c>
@@ -1229,7 +1197,7 @@
       <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="9">
@@ -1240,7 +1208,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2011</v>
       </c>
@@ -1254,7 +1222,7 @@
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="9">
@@ -1266,7 +1234,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2012</v>
       </c>
@@ -1280,7 +1248,7 @@
       <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="9">
@@ -1291,7 +1259,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2012</v>
       </c>
@@ -1305,7 +1273,7 @@
       <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="9">
@@ -1316,7 +1284,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2013</v>
       </c>
@@ -1330,7 +1298,7 @@
       <c r="E15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="9">
@@ -1341,7 +1309,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>2013</v>
       </c>
@@ -1355,7 +1323,7 @@
       <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="9">
@@ -1366,7 +1334,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2014</v>
       </c>
@@ -1380,7 +1348,7 @@
       <c r="E17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="9">
@@ -1391,7 +1359,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>2014</v>
       </c>
@@ -1405,7 +1373,7 @@
       <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="9">
@@ -1416,7 +1384,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2015</v>
       </c>
@@ -1430,7 +1398,7 @@
       <c r="E19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="9">
@@ -1441,7 +1409,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2015</v>
       </c>
@@ -1455,7 +1423,7 @@
       <c r="E20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="9">
@@ -1466,7 +1434,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>2015</v>
       </c>
@@ -1480,7 +1448,7 @@
       <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="9">
@@ -1491,7 +1459,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2016</v>
       </c>
@@ -1505,18 +1473,18 @@
       <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2016</v>
       </c>
@@ -1530,18 +1498,18 @@
       <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="F23" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2017</v>
       </c>
@@ -1555,18 +1523,18 @@
       <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2017</v>
       </c>
@@ -1580,7 +1548,7 @@
       <c r="E25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="9">
@@ -1591,7 +1559,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2018</v>
       </c>
@@ -1605,18 +1573,18 @@
       <c r="E26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2018</v>
       </c>
@@ -1630,10 +1598,10 @@
       <c r="E27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="21">
         <v>1</v>
       </c>
       <c r="H27" s="10" t="str">
@@ -1641,7 +1609,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2019</v>
       </c>
@@ -1655,7 +1623,7 @@
       <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="9">
@@ -1673,11 +1641,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1690,11 +1658,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="G6 G4 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1707,7 +1675,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1724,7 +1692,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1754,14 +1722,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1783,7 +1751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1794,7 +1762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1805,7 +1773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1816,7 +1784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1827,7 +1795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>100th Anniversary - Constitution</t>
+  </si>
+  <si>
+    <t>Obv: Without mint director symbol</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,15 +582,6 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -621,6 +614,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -642,9 +644,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="6"/>
+    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -913,723 +915,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="11" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="5" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>2004</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="str">
+        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="shared" ref="H6:H28" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="str">
-        <f t="shared" ref="H3" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="str">
-        <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="str">
-        <f t="shared" ref="H6:H28" si="2">IF(OR(AND(G6&gt;1,G6&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2007</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="D26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="D28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>2016</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>2019</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="str">
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1641,11 +1685,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1658,11 +1702,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1675,7 +1719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1692,7 +1736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1722,87 +1766,87 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\EURO\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -583,6 +583,15 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -614,15 +623,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -644,9 +644,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="6"/>
-    <tableColumn id="2" name="Link" dataDxfId="5" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="4"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -921,22 +921,22 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
-    <col min="4" max="5" width="24.81640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="24.85546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -976,7 +976,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2004</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2005</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2006</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2007</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2009</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2010</v>
       </c>
@@ -1212,14 +1212,14 @@
         <v>33</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2011</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2012</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2012</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2013</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>2013</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>2014</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>2014</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2015</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>2016</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2019</v>
       </c>
@@ -1685,11 +1685,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1702,11 +1702,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="G6 G4 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1719,7 +1719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1736,7 +1736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1766,14 +1766,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -921,7 +921,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1266,7 @@
         <v>29</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1482,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="shared" si="2"/>
@@ -1689,7 +1689,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1706,7 +1706,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6 G4 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B3BB99-346C-4583-9224-D33B0D10FE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{62DF2243-2FB4-49DE-AAAF-0B81E966C004}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
   <si>
     <t>Year</t>
   </si>
@@ -258,12 +259,24 @@
   </si>
   <si>
     <t>Obv: Without mint director symbol</t>
+  </si>
+  <si>
+    <t>720.000</t>
+  </si>
+  <si>
+    <t>700.000</t>
+  </si>
+  <si>
+    <t>100 years since the foundation of the University of Turku</t>
+  </si>
+  <si>
+    <t>100 years since the birth of Väinö Linna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -551,14 +564,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,9 +592,25 @@
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -637,16 +666,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -914,14 +943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -968,10 +997,10 @@
       <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="3"/>
@@ -983,7 +1012,7 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1010,7 +1039,7 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1037,7 +1066,7 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1675,6 +1704,60 @@
       </c>
       <c r="H28" s="9" t="str">
         <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f t="shared" ref="H29:H30" si="3">IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2020</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1685,12 +1768,12 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1702,12 +1785,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1719,11 +1802,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1735,12 +1835,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1759,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1852,12 +1969,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" location="svodka"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" location="svodka" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoinCollection\Collections\EURO\Finland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B3BB99-346C-4583-9224-D33B0D10FE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FAE645-8A65-48B3-B05B-9B46C51D8ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -68,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="76">
   <si>
     <t>Year</t>
   </si>
@@ -271,12 +280,42 @@
   </si>
   <si>
     <t>100 years since the birth of Väinö Linna</t>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Self-government in the Åland Region</t>
+  </si>
+  <si>
+    <t>100th Anniversary - National Ballet in Finland</t>
+  </si>
+  <si>
+    <t>35th Anniversary - Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Climate Research</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Finland's First Nature Conservation Law</t>
+  </si>
+  <si>
+    <t>Social and Health Services in Finland</t>
+  </si>
+  <si>
+    <t>800.000</t>
+  </si>
+  <si>
+    <t>400.000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,7 +549,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,13 +627,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -602,23 +642,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -652,6 +675,79 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -673,9 +769,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -944,28 +1040,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="48.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="48.54296875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="36.54296875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="24.81640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -985,7 +1081,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
@@ -1005,7 +1101,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2004</v>
       </c>
@@ -1032,7 +1128,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2005</v>
       </c>
@@ -1052,14 +1148,14 @@
         <v>29</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9" t="str">
         <f t="shared" ref="H4:H5" si="1">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2006</v>
       </c>
@@ -1086,7 +1182,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2007</v>
       </c>
@@ -1113,7 +1209,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
@@ -1140,7 +1236,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
@@ -1167,7 +1263,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
@@ -1194,7 +1290,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2009</v>
       </c>
@@ -1221,7 +1317,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2010</v>
       </c>
@@ -1248,7 +1344,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2011</v>
       </c>
@@ -1268,14 +1364,14 @@
         <v>33</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2012</v>
       </c>
@@ -1302,7 +1398,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2012</v>
       </c>
@@ -1329,7 +1425,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2013</v>
       </c>
@@ -1355,8 +1451,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2013</v>
       </c>
@@ -1376,14 +1474,14 @@
         <v>32</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>2014</v>
       </c>
@@ -1410,7 +1508,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2014</v>
       </c>
@@ -1437,7 +1535,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>2015</v>
       </c>
@@ -1464,7 +1562,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2015</v>
       </c>
@@ -1484,14 +1582,14 @@
         <v>26</v>
       </c>
       <c r="G20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2015</v>
       </c>
@@ -1518,7 +1616,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2016</v>
       </c>
@@ -1545,7 +1643,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2016</v>
       </c>
@@ -1571,8 +1669,10 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
@@ -1599,7 +1699,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>2017</v>
       </c>
@@ -1619,14 +1719,14 @@
         <v>26</v>
       </c>
       <c r="G25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2018</v>
       </c>
@@ -1653,7 +1753,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>2018</v>
       </c>
@@ -1680,7 +1780,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2019</v>
       </c>
@@ -1707,7 +1807,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>2020</v>
       </c>
@@ -1727,14 +1827,14 @@
         <v>63</v>
       </c>
       <c r="G29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="shared" ref="H29:H30" si="3">IF(OR(AND(G29&gt;1,G29&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2020</v>
       </c>
@@ -1754,12 +1854,207 @@
         <v>64</v>
       </c>
       <c r="G30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9" t="str">
+        <f t="shared" ref="H31:H32" si="4">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9" t="str">
+        <f t="shared" ref="H33:H37" si="5">IF(OR(AND(G33&gt;1,G33&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1768,11 +2063,79 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1784,12 +2147,63 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="G30">
+    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1801,13 +2215,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="G37">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1818,12 +2232,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="G34">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1835,30 +2266,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="G36">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1880,17 +2294,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
@@ -1901,7 +2315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1912,7 +2326,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1923,7 +2337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1934,7 +2348,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1945,7 +2359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1956,7 +2370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>6</v>
       </c>

--- a/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
+++ b/Collections/EURO/Finland/#EURO#Finland#Commemorative#[2004-present]#circulation_quality%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Finland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FAE645-8A65-48B3-B05B-9B46C51D8ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869CCAC4-5BCC-4E83-9DEA-97FEB5EFB2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>400.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -314,7 +314,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -612,6 +612,7 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,7 +628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -635,6 +635,15 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -739,15 +748,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -769,9 +769,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="14" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1046,7 +1046,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1062,42 +1062,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1106,19 +1106,19 @@
         <v>2004</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="8">
         <v>1</v>
@@ -1160,19 +1160,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>2007</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
@@ -1214,19 +1214,19 @@
         <v>2007</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>2008</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>2009</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1322,19 +1322,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="8">
         <v>1</v>
@@ -1349,19 +1349,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
@@ -1376,19 +1376,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
@@ -1403,19 +1403,19 @@
         <v>2012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -1430,19 +1430,19 @@
         <v>2013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="8">
         <v>0</v>
@@ -1451,27 +1451,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2013</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
@@ -1486,19 +1486,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
@@ -1513,19 +1513,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1540,19 +1540,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1594,19 +1594,19 @@
         <v>2015</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="8">
         <v>1</v>
@@ -1621,19 +1621,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G22" s="8">
         <v>1</v>
@@ -1648,19 +1648,19 @@
         <v>2016</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" s="8">
         <v>1</v>
@@ -1669,27 +1669,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>2017</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" s="8">
         <v>1</v>
@@ -1704,19 +1704,19 @@
         <v>2017</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="8">
         <v>1</v>
@@ -1731,19 +1731,19 @@
         <v>2018</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G26" s="8">
         <v>1</v>
@@ -1758,19 +1758,19 @@
         <v>2018</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="20">
         <v>1</v>
@@ -1785,19 +1785,19 @@
         <v>2019</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>2020</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="G29" s="8">
         <v>1</v>
@@ -1839,19 +1839,19 @@
         <v>2020</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="8">
         <v>1</v>
@@ -1866,19 +1866,19 @@
         <v>2021</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
@@ -1887,27 +1887,27 @@
         <f t="shared" ref="H31:H32" si="4">IF(OR(AND(G31&gt;1,G31&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2021</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         <v>2022</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
@@ -1949,19 +1949,19 @@
         <v>2022</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>2022</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="8">
         <v>1</v>
@@ -2003,19 +2003,19 @@
         <v>2023</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -2030,19 +2030,19 @@
         <v>2023</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" s="8">
         <v>0</v>
@@ -2053,8 +2053,8 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2063,11 +2063,11 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
-    <cfRule type="containsText" dxfId="12" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G5 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
+  <conditionalFormatting sqref="G5 G3 G7 G9 G11 G13 G15 G17 G19 G21 G23 G25">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2080,11 +2080,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4 G6 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
+  <conditionalFormatting sqref="G6 G4 G8 G10 G12 G14 G16 G18 G20 G22 G24 G26">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -2097,7 +2097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="containsText" dxfId="10" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G27))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2114,7 +2114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2131,7 +2131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G29))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2148,7 +2148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G30))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2165,7 +2165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G31))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2182,7 +2182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G32))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2199,7 +2199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G33))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2216,7 +2216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G37))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2233,7 +2233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G34))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2250,7 +2250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G35))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2267,7 +2267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G36))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2306,13 +2306,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2320,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2331,10 +2331,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2342,10 +2342,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2353,10 +2353,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2364,10 +2364,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2375,10 +2375,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
